--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dhh-Hhip.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dhh-Hhip.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H2">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I2">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J2">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -564,22 +564,22 @@
         <v>0.637343</v>
       </c>
       <c r="O2">
-        <v>0.6026365579888634</v>
+        <v>0.9272790495339911</v>
       </c>
       <c r="P2">
-        <v>0.6026365579888634</v>
+        <v>0.9272790495339911</v>
       </c>
       <c r="Q2">
-        <v>0.8026968258695557</v>
+        <v>0.9716922171934445</v>
       </c>
       <c r="R2">
-        <v>7.224271432826001</v>
+        <v>8.745229954740999</v>
       </c>
       <c r="S2">
-        <v>0.3821193788007464</v>
+        <v>0.6054297440974392</v>
       </c>
       <c r="T2">
-        <v>0.3821193788007465</v>
+        <v>0.6054297440974393</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.778327333333334</v>
+        <v>4.573795666666666</v>
       </c>
       <c r="H3">
-        <v>11.334982</v>
+        <v>13.721387</v>
       </c>
       <c r="I3">
-        <v>0.6340793198407453</v>
+        <v>0.6529099782872276</v>
       </c>
       <c r="J3">
-        <v>0.6340793198407455</v>
+        <v>0.6529099782872277</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.1400826666666667</v>
+        <v>0.016661</v>
       </c>
       <c r="N3">
-        <v>0.420248</v>
+        <v>0.049983</v>
       </c>
       <c r="O3">
-        <v>0.3973634420111366</v>
+        <v>0.07272095046600884</v>
       </c>
       <c r="P3">
-        <v>0.3973634420111367</v>
+        <v>0.07272095046600885</v>
       </c>
       <c r="Q3">
-        <v>0.5292781683928889</v>
+        <v>0.07620400960233333</v>
       </c>
       <c r="R3">
-        <v>4.763503515536001</v>
+        <v>0.685836086421</v>
       </c>
       <c r="S3">
-        <v>0.2519599410399989</v>
+        <v>0.04748023418978838</v>
       </c>
       <c r="T3">
-        <v>0.251959941039999</v>
+        <v>0.0474802341897884</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -670,10 +670,10 @@
         <v>4.171665</v>
       </c>
       <c r="I4">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J4">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -688,10 +688,10 @@
         <v>0.637343</v>
       </c>
       <c r="O4">
-        <v>0.6026365579888634</v>
+        <v>0.9272790495339911</v>
       </c>
       <c r="P4">
-        <v>0.6026365579888634</v>
+        <v>0.9272790495339911</v>
       </c>
       <c r="Q4">
         <v>0.2954201651216667</v>
@@ -700,10 +700,10 @@
         <v>2.658781486095</v>
       </c>
       <c r="S4">
-        <v>0.1406331336357495</v>
+        <v>0.1840666744120142</v>
       </c>
       <c r="T4">
-        <v>0.1406331336357496</v>
+        <v>0.1840666744120142</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>4.171665</v>
       </c>
       <c r="I5">
-        <v>0.2333630971626988</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="J5">
-        <v>0.2333630971626989</v>
+        <v>0.1985019229157801</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1400826666666667</v>
+        <v>0.016661</v>
       </c>
       <c r="N5">
-        <v>0.420248</v>
+        <v>0.049983</v>
       </c>
       <c r="O5">
-        <v>0.3973634420111366</v>
+        <v>0.07272095046600884</v>
       </c>
       <c r="P5">
-        <v>0.3973634420111367</v>
+        <v>0.07272095046600885</v>
       </c>
       <c r="Q5">
-        <v>0.1947926525466667</v>
+        <v>0.023168036855</v>
       </c>
       <c r="R5">
-        <v>1.75313387292</v>
+        <v>0.208512331695</v>
       </c>
       <c r="S5">
-        <v>0.09272996352694932</v>
+        <v>0.01443524850376595</v>
       </c>
       <c r="T5">
-        <v>0.09272996352694936</v>
+        <v>0.01443524850376596</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H6">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I6">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J6">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -812,22 +812,22 @@
         <v>0.637343</v>
       </c>
       <c r="O6">
-        <v>0.6026365579888634</v>
+        <v>0.9272790495339911</v>
       </c>
       <c r="P6">
-        <v>0.6026365579888634</v>
+        <v>0.9272790495339911</v>
       </c>
       <c r="Q6">
-        <v>0.05343115469377778</v>
+        <v>0.07536021529477778</v>
       </c>
       <c r="R6">
-        <v>0.480880392244</v>
+        <v>0.678241937653</v>
       </c>
       <c r="S6">
-        <v>0.02543560530225752</v>
+        <v>0.04695449346381062</v>
       </c>
       <c r="T6">
-        <v>0.02543560530225752</v>
+        <v>0.04695449346381062</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.2515026666666667</v>
+        <v>0.3547236666666667</v>
       </c>
       <c r="H7">
-        <v>0.754508</v>
+        <v>1.064171</v>
       </c>
       <c r="I7">
-        <v>0.04220720592713786</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="J7">
-        <v>0.04220720592713787</v>
+        <v>0.05063685358512936</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.1400826666666667</v>
+        <v>0.016661</v>
       </c>
       <c r="N7">
-        <v>0.420248</v>
+        <v>0.049983</v>
       </c>
       <c r="O7">
-        <v>0.3973634420111366</v>
+        <v>0.07272095046600884</v>
       </c>
       <c r="P7">
-        <v>0.3973634420111367</v>
+        <v>0.07272095046600885</v>
       </c>
       <c r="Q7">
-        <v>0.03523116422044444</v>
+        <v>0.005910051010333333</v>
       </c>
       <c r="R7">
-        <v>0.317080477984</v>
+        <v>0.053190459093</v>
       </c>
       <c r="S7">
-        <v>0.01677160062488035</v>
+        <v>0.003682360121318734</v>
       </c>
       <c r="T7">
-        <v>0.01677160062488035</v>
+        <v>0.003682360121318735</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H8">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I8">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J8">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,22 +936,22 @@
         <v>0.637343</v>
       </c>
       <c r="O8">
-        <v>0.6026365579888634</v>
+        <v>0.9272790495339911</v>
       </c>
       <c r="P8">
-        <v>0.6026365579888634</v>
+        <v>0.9272790495339911</v>
       </c>
       <c r="Q8">
-        <v>0.07548874613311111</v>
+        <v>0.1019160319963333</v>
       </c>
       <c r="R8">
-        <v>0.6793987151980001</v>
+        <v>0.917244287967</v>
       </c>
       <c r="S8">
-        <v>0.0359359995569726</v>
+        <v>0.06350055715088916</v>
       </c>
       <c r="T8">
-        <v>0.03593599955697261</v>
+        <v>0.06350055715088916</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3553286666666667</v>
+        <v>0.479723</v>
       </c>
       <c r="H9">
-        <v>1.065986</v>
+        <v>1.439169</v>
       </c>
       <c r="I9">
-        <v>0.0596312969742481</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="J9">
-        <v>0.05963129697424811</v>
+        <v>0.06848052609708123</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1400826666666667</v>
+        <v>0.016661</v>
       </c>
       <c r="N9">
-        <v>0.420248</v>
+        <v>0.049983</v>
       </c>
       <c r="O9">
-        <v>0.3973634420111366</v>
+        <v>0.07272095046600884</v>
       </c>
       <c r="P9">
-        <v>0.3973634420111367</v>
+        <v>0.07272095046600885</v>
       </c>
       <c r="Q9">
-        <v>0.04977538716977778</v>
+        <v>0.007992664902999999</v>
       </c>
       <c r="R9">
-        <v>0.447978484528</v>
+        <v>0.071933984127</v>
       </c>
       <c r="S9">
-        <v>0.0236952974172755</v>
+        <v>0.00497996894619207</v>
       </c>
       <c r="T9">
-        <v>0.02369529741727551</v>
+        <v>0.00497996894619207</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1830476666666667</v>
+        <v>0.2064496666666667</v>
       </c>
       <c r="H10">
-        <v>0.549143</v>
+        <v>0.619349</v>
       </c>
       <c r="I10">
-        <v>0.03071908009516966</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="J10">
-        <v>0.03071908009516967</v>
+        <v>0.02947071911478163</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1060,22 +1060,22 @@
         <v>0.637343</v>
       </c>
       <c r="O10">
-        <v>0.6026365579888634</v>
+        <v>0.9272790495339911</v>
       </c>
       <c r="P10">
-        <v>0.6026365579888634</v>
+        <v>0.9272790495339911</v>
       </c>
       <c r="Q10">
-        <v>0.03888804967211112</v>
+        <v>0.04385974996744445</v>
       </c>
       <c r="R10">
-        <v>0.349992447049</v>
+        <v>0.394737749707</v>
       </c>
       <c r="S10">
-        <v>0.01851244069313725</v>
+        <v>0.02732758040983794</v>
       </c>
       <c r="T10">
-        <v>0.01851244069313725</v>
+        <v>0.02732758040983794</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.2064496666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.619349</v>
+      </c>
+      <c r="I11">
+        <v>0.02947071911478163</v>
+      </c>
+      <c r="J11">
+        <v>0.02947071911478163</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G11">
-        <v>0.1830476666666667</v>
-      </c>
-      <c r="H11">
-        <v>0.549143</v>
-      </c>
-      <c r="I11">
-        <v>0.03071908009516966</v>
-      </c>
-      <c r="J11">
-        <v>0.03071908009516967</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
       <c r="M11">
-        <v>0.1400826666666667</v>
+        <v>0.016661</v>
       </c>
       <c r="N11">
-        <v>0.420248</v>
+        <v>0.049983</v>
       </c>
       <c r="O11">
-        <v>0.3973634420111366</v>
+        <v>0.07272095046600884</v>
       </c>
       <c r="P11">
-        <v>0.3973634420111367</v>
+        <v>0.07272095046600885</v>
       </c>
       <c r="Q11">
-        <v>0.02564180527377778</v>
+        <v>0.003439657896333333</v>
       </c>
       <c r="R11">
-        <v>0.230776247464</v>
+        <v>0.030956921067</v>
       </c>
       <c r="S11">
-        <v>0.01220663940203241</v>
+        <v>0.002143138704943695</v>
       </c>
       <c r="T11">
-        <v>0.01220663940203241</v>
+        <v>0.002143138704943696</v>
       </c>
     </row>
   </sheetData>
